--- a/Bugs Report/Bugs.xlsx
+++ b/Bugs Report/Bugs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
   <si>
     <t>Descripción</t>
   </si>
@@ -89,14 +89,25 @@
   </si>
   <si>
     <t>No se ejecuta el comando al presionar el botón</t>
+  </si>
+  <si>
+    <t>No se puede mover la ventana.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -197,6 +208,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -206,27 +235,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,18 +559,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="8"/>
-      <c r="F1" s="6" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="14"/>
+      <c r="F1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="8"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="14"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -593,7 +602,7 @@
       <c r="A3" s="4">
         <v>0</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -605,7 +614,7 @@
       <c r="F3" s="4">
         <v>0</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -616,129 +625,140 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="7">
         <v>1</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="10">
+      <c r="D4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="7">
         <v>1</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="13" t="s">
+      <c r="I4" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="7">
         <v>2</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="10">
+      <c r="D5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="7">
         <v>2</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="A6" s="7">
         <v>3</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="10">
+      <c r="D6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="7">
         <v>3</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
-        <v>3</v>
-      </c>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="7">
+        <v>4</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="10">
-        <v>4</v>
-      </c>
-      <c r="G7" s="11" t="s">
+      <c r="D7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="7">
+        <v>4</v>
+      </c>
+      <c r="G7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="15"/>
-      <c r="F8" s="10">
+      <c r="A8" s="7">
         <v>5</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="B8" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="C8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="7">
+        <v>5</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="13" t="s">
+      <c r="I8" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F9" s="4">
-        <v>0</v>
-      </c>
-      <c r="G9" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>22</v>
       </c>
       <c r="H9" s="1" t="s">
@@ -747,6 +767,9 @@
       <c r="I9" s="3" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D10" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="2">
